--- a/public/data/Stations.xlsx
+++ b/public/data/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web-projects\baltic-rails-leaflet\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61792F4F-0F87-4CB3-B411-43864134BFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D487CF4E-DF10-41C0-AEE3-AA327572F1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="2165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4967" uniqueCount="2185">
   <si>
     <t>Station ID</t>
   </si>
@@ -6531,13 +6531,73 @@
   </si>
   <si>
     <t>24.47150</t>
+  </si>
+  <si>
+    <t>Veski</t>
+  </si>
+  <si>
+    <t>57.834778</t>
+  </si>
+  <si>
+    <t>Võmmorski</t>
+  </si>
+  <si>
+    <t>Ülenurme</t>
+  </si>
+  <si>
+    <t>58.323508</t>
+  </si>
+  <si>
+    <t>26.717806</t>
+  </si>
+  <si>
+    <t>Station moved ~1.5 km South</t>
+  </si>
+  <si>
+    <t>Laane</t>
+  </si>
+  <si>
+    <t>58.202977</t>
+  </si>
+  <si>
+    <t>26.877288</t>
+  </si>
+  <si>
+    <t>Kliima</t>
+  </si>
+  <si>
+    <t>57.867625</t>
+  </si>
+  <si>
+    <t>27.517654</t>
+  </si>
+  <si>
+    <t>Logina</t>
+  </si>
+  <si>
+    <t>Põlva maakond</t>
+  </si>
+  <si>
+    <t>Piiroja</t>
+  </si>
+  <si>
+    <t>57.842713</t>
+  </si>
+  <si>
+    <t>27.557978</t>
+  </si>
+  <si>
+    <t>Kolodavitsa</t>
+  </si>
+  <si>
+    <t>On the dismantled section of the line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6584,14 +6644,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6619,7 +6671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6638,9 +6690,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -6861,10 +6910,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S598"/>
+  <dimension ref="A1:S603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="E588" sqref="E588"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="F579" sqref="F579:G603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6877,7 +6926,7 @@
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6921,7 +6970,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6966,7 +7015,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7011,7 +7060,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7054,7 +7103,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7097,7 +7146,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7140,7 +7189,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7185,7 +7234,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7230,7 +7279,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7273,7 +7322,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7318,7 +7367,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7363,7 +7412,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7407,7 +7456,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7451,7 +7500,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7497,7 +7546,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7541,7 +7590,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7585,7 +7634,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7629,7 +7678,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7675,7 +7724,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7719,7 +7768,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7765,7 +7814,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7809,7 +7858,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7853,7 +7902,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7897,7 +7946,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7941,7 +7990,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7985,7 +8034,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8029,7 +8078,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8075,7 +8124,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8121,7 +8170,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8167,7 +8216,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8213,7 +8262,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8259,7 +8308,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8305,7 +8354,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8351,7 +8400,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8395,7 +8444,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8439,7 +8488,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8485,7 +8534,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8531,7 +8580,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8575,7 +8624,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -8621,7 +8670,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -8665,7 +8714,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -8709,7 +8758,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -8753,7 +8802,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -8797,7 +8846,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -8841,7 +8890,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -8885,7 +8934,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -8929,7 +8978,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -8973,7 +9022,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -9019,7 +9068,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -9065,7 +9114,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -9109,7 +9158,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -9153,7 +9202,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -9197,7 +9246,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -9241,7 +9290,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -9285,7 +9334,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -9329,7 +9378,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -9373,7 +9422,7 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -9419,7 +9468,7 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -9463,7 +9512,7 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -9507,7 +9556,7 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -9551,7 +9600,7 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -9597,7 +9646,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -9641,7 +9690,7 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -9685,7 +9734,7 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -9729,7 +9778,7 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -9773,7 +9822,7 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -9817,7 +9866,7 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -9861,7 +9910,7 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -9905,7 +9954,7 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -9949,7 +9998,7 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -9993,7 +10042,7 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -10037,7 +10086,7 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -10081,7 +10130,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -10127,7 +10176,7 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -10171,7 +10220,7 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -10215,7 +10264,7 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -10259,7 +10308,7 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -10305,7 +10354,7 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -10349,7 +10398,7 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -10393,7 +10442,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -10439,7 +10488,7 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -10483,7 +10532,7 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -10527,7 +10576,7 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -10571,7 +10620,7 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -10615,7 +10664,7 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -10659,7 +10708,7 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -10705,7 +10754,7 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -10749,7 +10798,7 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -10793,7 +10842,7 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -10837,7 +10886,7 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -10881,7 +10930,7 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -10927,7 +10976,7 @@
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -10971,7 +11020,7 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -11017,7 +11066,7 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -11061,7 +11110,7 @@
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -11107,7 +11156,7 @@
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -11151,7 +11200,7 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -11195,7 +11244,7 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -11239,7 +11288,7 @@
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -11283,7 +11332,7 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -11327,7 +11376,7 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -11371,7 +11420,7 @@
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -11415,7 +11464,7 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -11459,7 +11508,7 @@
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -11505,7 +11554,7 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -11549,7 +11598,7 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -11593,7 +11642,7 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -11639,7 +11688,7 @@
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -11683,7 +11732,7 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -11726,7 +11775,7 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -11770,7 +11819,7 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -11814,7 +11863,7 @@
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -11858,7 +11907,7 @@
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -11902,7 +11951,7 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -11946,7 +11995,7 @@
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -11992,7 +12041,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -12036,7 +12085,7 @@
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -12080,7 +12129,7 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -12126,7 +12175,7 @@
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -12170,7 +12219,7 @@
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -12214,7 +12263,7 @@
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -12258,7 +12307,7 @@
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -12304,7 +12353,7 @@
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -12348,7 +12397,7 @@
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -12392,7 +12441,7 @@
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -12436,7 +12485,7 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -12482,7 +12531,7 @@
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -12528,7 +12577,7 @@
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -12574,7 +12623,7 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -12620,7 +12669,7 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -12664,7 +12713,7 @@
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -12708,7 +12757,7 @@
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -12752,7 +12801,7 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -12796,7 +12845,7 @@
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -12840,7 +12889,7 @@
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -12884,7 +12933,7 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -12928,7 +12977,7 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -12972,7 +13021,7 @@
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -13018,7 +13067,7 @@
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -13062,7 +13111,7 @@
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -13106,7 +13155,7 @@
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -13152,7 +13201,7 @@
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -13196,7 +13245,7 @@
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -13242,7 +13291,7 @@
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -13286,7 +13335,7 @@
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -13330,7 +13379,7 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -13374,7 +13423,7 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -13420,7 +13469,7 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -13464,7 +13513,7 @@
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -13508,7 +13557,7 @@
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -13552,7 +13601,7 @@
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -13596,7 +13645,7 @@
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -13642,7 +13691,7 @@
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -13686,7 +13735,7 @@
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -13730,7 +13779,7 @@
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -13776,7 +13825,7 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -13820,7 +13869,7 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -13864,7 +13913,7 @@
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -13910,7 +13959,7 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -13954,7 +14003,7 @@
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -13998,7 +14047,7 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -14044,7 +14093,7 @@
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -14088,7 +14137,7 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -14132,7 +14181,7 @@
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -14178,7 +14227,7 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -14224,7 +14273,7 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -14270,7 +14319,7 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -14316,7 +14365,7 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -14362,7 +14411,7 @@
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -14408,7 +14457,7 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -14454,7 +14503,7 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -14500,7 +14549,7 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -14544,7 +14593,7 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -14588,7 +14637,7 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -14634,7 +14683,7 @@
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -14680,7 +14729,7 @@
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -14724,7 +14773,7 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -14770,7 +14819,7 @@
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -14816,7 +14865,7 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -14862,7 +14911,7 @@
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -14906,7 +14955,7 @@
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -14950,7 +14999,7 @@
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -14994,7 +15043,7 @@
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -15038,7 +15087,7 @@
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -15082,7 +15131,7 @@
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -15128,7 +15177,7 @@
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -15171,7 +15220,7 @@
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -15215,7 +15264,7 @@
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -15259,7 +15308,7 @@
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -15305,7 +15354,7 @@
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -15349,7 +15398,7 @@
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -15393,7 +15442,7 @@
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -15439,7 +15488,7 @@
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -15485,7 +15534,7 @@
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -15529,7 +15578,7 @@
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -15573,7 +15622,7 @@
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -15617,7 +15666,7 @@
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -15661,7 +15710,7 @@
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -15705,7 +15754,7 @@
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -15749,7 +15798,7 @@
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -15793,7 +15842,7 @@
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -15837,7 +15886,7 @@
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -15881,7 +15930,7 @@
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -15925,7 +15974,7 @@
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -15969,7 +16018,7 @@
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -16015,7 +16064,7 @@
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -16059,7 +16108,7 @@
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -16103,7 +16152,7 @@
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -16147,7 +16196,7 @@
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -16191,7 +16240,7 @@
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -16235,7 +16284,7 @@
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -16281,7 +16330,7 @@
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -16325,7 +16374,7 @@
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -16369,7 +16418,7 @@
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -16413,7 +16462,7 @@
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -16457,7 +16506,7 @@
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -16501,7 +16550,7 @@
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>217</v>
       </c>
@@ -16545,7 +16594,7 @@
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -16589,7 +16638,7 @@
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -16633,7 +16682,7 @@
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -16676,7 +16725,7 @@
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -16720,7 +16769,7 @@
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>222</v>
       </c>
@@ -16766,7 +16815,7 @@
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>223</v>
       </c>
@@ -16810,7 +16859,7 @@
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>224</v>
       </c>
@@ -16854,7 +16903,7 @@
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -16897,7 +16946,7 @@
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>226</v>
       </c>
@@ -16941,7 +16990,7 @@
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>227</v>
       </c>
@@ -16985,7 +17034,7 @@
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>228</v>
       </c>
@@ -17031,7 +17080,7 @@
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>229</v>
       </c>
@@ -17075,7 +17124,7 @@
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>230</v>
       </c>
@@ -17119,7 +17168,7 @@
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>231</v>
       </c>
@@ -17163,7 +17212,7 @@
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>232</v>
       </c>
@@ -17207,7 +17256,7 @@
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>233</v>
       </c>
@@ -17251,7 +17300,7 @@
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>234</v>
       </c>
@@ -17295,7 +17344,7 @@
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>235</v>
       </c>
@@ -17339,7 +17388,7 @@
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>236</v>
       </c>
@@ -17385,7 +17434,7 @@
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>237</v>
       </c>
@@ -17429,7 +17478,7 @@
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>238</v>
       </c>
@@ -17473,7 +17522,7 @@
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>239</v>
       </c>
@@ -17519,7 +17568,7 @@
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>240</v>
       </c>
@@ -17565,7 +17614,7 @@
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>241</v>
       </c>
@@ -17609,7 +17658,7 @@
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>242</v>
       </c>
@@ -17653,7 +17702,7 @@
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>243</v>
       </c>
@@ -17697,7 +17746,7 @@
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>244</v>
       </c>
@@ -17743,7 +17792,7 @@
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>245</v>
       </c>
@@ -17787,7 +17836,7 @@
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>246</v>
       </c>
@@ -17831,7 +17880,7 @@
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>247</v>
       </c>
@@ -17875,7 +17924,7 @@
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>248</v>
       </c>
@@ -17919,7 +17968,7 @@
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>249</v>
       </c>
@@ -17965,7 +18014,7 @@
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>250</v>
       </c>
@@ -18011,7 +18060,7 @@
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>251</v>
       </c>
@@ -18055,7 +18104,7 @@
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>252</v>
       </c>
@@ -18099,7 +18148,7 @@
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>253</v>
       </c>
@@ -18143,7 +18192,7 @@
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>254</v>
       </c>
@@ -18187,7 +18236,7 @@
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>255</v>
       </c>
@@ -18231,7 +18280,7 @@
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>256</v>
       </c>
@@ -18275,7 +18324,7 @@
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>257</v>
       </c>
@@ -18319,7 +18368,7 @@
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>258</v>
       </c>
@@ -18363,7 +18412,7 @@
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>259</v>
       </c>
@@ -18407,7 +18456,7 @@
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>260</v>
       </c>
@@ -18451,7 +18500,7 @@
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>261</v>
       </c>
@@ -18495,7 +18544,7 @@
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>262</v>
       </c>
@@ -18539,7 +18588,7 @@
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>263</v>
       </c>
@@ -18583,7 +18632,7 @@
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>264</v>
       </c>
@@ -18629,7 +18678,7 @@
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>265</v>
       </c>
@@ -18673,7 +18722,7 @@
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>266</v>
       </c>
@@ -18717,7 +18766,7 @@
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>267</v>
       </c>
@@ -18761,7 +18810,7 @@
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>268</v>
       </c>
@@ -18805,7 +18854,7 @@
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>269</v>
       </c>
@@ -18849,7 +18898,7 @@
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>270</v>
       </c>
@@ -18893,7 +18942,7 @@
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>271</v>
       </c>
@@ -18937,7 +18986,7 @@
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>272</v>
       </c>
@@ -18981,7 +19030,7 @@
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>273</v>
       </c>
@@ -19025,7 +19074,7 @@
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>274</v>
       </c>
@@ -19069,7 +19118,7 @@
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>275</v>
       </c>
@@ -19113,7 +19162,7 @@
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>276</v>
       </c>
@@ -19159,7 +19208,7 @@
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>277</v>
       </c>
@@ -19203,7 +19252,7 @@
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>278</v>
       </c>
@@ -19249,7 +19298,7 @@
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>279</v>
       </c>
@@ -19293,7 +19342,7 @@
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>280</v>
       </c>
@@ -19339,7 +19388,7 @@
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>281</v>
       </c>
@@ -19383,7 +19432,7 @@
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>282</v>
       </c>
@@ -19429,7 +19478,7 @@
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>283</v>
       </c>
@@ -19473,7 +19522,7 @@
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>284</v>
       </c>
@@ -19517,7 +19566,7 @@
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>285</v>
       </c>
@@ -19561,7 +19610,7 @@
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>286</v>
       </c>
@@ -19605,7 +19654,7 @@
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>287</v>
       </c>
@@ -19649,7 +19698,7 @@
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>288</v>
       </c>
@@ -19693,7 +19742,7 @@
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>289</v>
       </c>
@@ -19737,7 +19786,7 @@
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>290</v>
       </c>
@@ -19783,7 +19832,7 @@
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>291</v>
       </c>
@@ -19827,7 +19876,7 @@
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>292</v>
       </c>
@@ -19871,7 +19920,7 @@
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>293</v>
       </c>
@@ -19915,7 +19964,7 @@
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>294</v>
       </c>
@@ -19959,7 +20008,7 @@
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>295</v>
       </c>
@@ -20003,7 +20052,7 @@
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>296</v>
       </c>
@@ -20047,7 +20096,7 @@
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>297</v>
       </c>
@@ -20091,7 +20140,7 @@
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>298</v>
       </c>
@@ -20137,7 +20186,7 @@
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>299</v>
       </c>
@@ -20181,7 +20230,7 @@
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>300</v>
       </c>
@@ -20225,7 +20274,7 @@
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>301</v>
       </c>
@@ -20269,7 +20318,7 @@
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>302</v>
       </c>
@@ -20315,7 +20364,7 @@
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>303</v>
       </c>
@@ -20359,7 +20408,7 @@
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>304</v>
       </c>
@@ -20403,7 +20452,7 @@
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>305</v>
       </c>
@@ -20447,7 +20496,7 @@
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>306</v>
       </c>
@@ -20493,7 +20542,7 @@
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>307</v>
       </c>
@@ -20537,7 +20586,7 @@
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>308</v>
       </c>
@@ -20581,7 +20630,7 @@
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>309</v>
       </c>
@@ -20625,7 +20674,7 @@
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>310</v>
       </c>
@@ -20669,7 +20718,7 @@
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>311</v>
       </c>
@@ -20713,7 +20762,7 @@
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>312</v>
       </c>
@@ -20757,7 +20806,7 @@
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>313</v>
       </c>
@@ -20801,7 +20850,7 @@
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>314</v>
       </c>
@@ -20845,7 +20894,7 @@
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>315</v>
       </c>
@@ -20889,7 +20938,7 @@
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>316</v>
       </c>
@@ -20933,7 +20982,7 @@
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>317</v>
       </c>
@@ -20977,7 +21026,7 @@
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>318</v>
       </c>
@@ -21021,7 +21070,7 @@
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>319</v>
       </c>
@@ -21065,7 +21114,7 @@
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>320</v>
       </c>
@@ -21109,7 +21158,7 @@
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>321</v>
       </c>
@@ -21155,7 +21204,7 @@
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>322</v>
       </c>
@@ -21199,7 +21248,7 @@
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>323</v>
       </c>
@@ -21235,7 +21284,7 @@
         <v>56.427823, 23.817686</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>324</v>
       </c>
@@ -21271,7 +21320,7 @@
         <v>56.427263, 23.853122</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>325</v>
       </c>
@@ -21307,7 +21356,7 @@
         <v>56.4273906, 23.912455</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>326</v>
       </c>
@@ -21343,7 +21392,7 @@
         <v>56.430619, 23.955779</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>327</v>
       </c>
@@ -21379,7 +21428,7 @@
         <v>56.420848, 24.051087</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>328</v>
       </c>
@@ -21415,7 +21464,7 @@
         <v>56.398634, 24.125566</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>329</v>
       </c>
@@ -21451,7 +21500,7 @@
         <v>56.394997, 24.173058</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>330</v>
       </c>
@@ -21487,7 +21536,7 @@
         <v>56.373833, 22.558092</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>331</v>
       </c>
@@ -21523,7 +21572,7 @@
         <v>56.891619, 23.235335</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>332</v>
       </c>
@@ -21559,7 +21608,7 @@
         <v>56.844267, 23.291184</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>333</v>
       </c>
@@ -21595,7 +21644,7 @@
         <v>56.807688, 23.334303</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>334</v>
       </c>
@@ -21631,7 +21680,7 @@
         <v>56.779996, 23.370968</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>335</v>
       </c>
@@ -21667,7 +21716,7 @@
         <v>56.702015, 23.463731</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>336</v>
       </c>
@@ -21703,7 +21752,7 @@
         <v>56.661332, 23.538926</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>337</v>
       </c>
@@ -21742,7 +21791,7 @@
         <v>56.650833, 23.756667</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>338</v>
       </c>
@@ -21778,7 +21827,7 @@
         <v>56.652859, 23.862595</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>339</v>
       </c>
@@ -21814,7 +21863,7 @@
         <v>56.650113, 23.949478</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>340</v>
       </c>
@@ -21853,7 +21902,7 @@
         <v>56.641946, 24.085640</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>341</v>
       </c>
@@ -21889,7 +21938,7 @@
         <v>56.628403, 24.234523</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>342</v>
       </c>
@@ -21925,7 +21974,7 @@
         <v>56.592033, 24.391271</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>343</v>
       </c>
@@ -21961,7 +22010,7 @@
         <v>56.584444, 24.446667</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>344</v>
       </c>
@@ -21997,7 +22046,7 @@
         <v>56.584965, 24.481074</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>345</v>
       </c>
@@ -22036,7 +22085,7 @@
         <v>56.590146, 24.537307</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>346</v>
       </c>
@@ -22072,7 +22121,7 @@
         <v>56.590516, 24.557174</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>347</v>
       </c>
@@ -22108,7 +22157,7 @@
         <v>56.582778, 24.673761</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>348</v>
       </c>
@@ -22144,7 +22193,7 @@
         <v>56.581362, 24.734599</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>349</v>
       </c>
@@ -22180,7 +22229,7 @@
         <v>56.575925, 24.792937</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>350</v>
       </c>
@@ -22216,7 +22265,7 @@
         <v>56.561753, 24.935836</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>351</v>
       </c>
@@ -22252,7 +22301,7 @@
         <v>56.537844, 25.102250</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>352</v>
       </c>
@@ -22288,7 +22337,7 @@
         <v>56.521070, 25.176970</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>353</v>
       </c>
@@ -22327,7 +22376,7 @@
         <v>56.508196, 25.244310</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>354</v>
       </c>
@@ -22363,7 +22412,7 @@
         <v>56.510667, 25.368042</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>355</v>
       </c>
@@ -22399,7 +22448,7 @@
         <v>56.521111, 25.516389</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>356</v>
       </c>
@@ -22438,7 +22487,7 @@
         <v>56.526585, 25.613993</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>357</v>
       </c>
@@ -22477,7 +22526,7 @@
         <v>56.537881, 25.719588</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>358</v>
       </c>
@@ -22513,7 +22562,7 @@
         <v>56.520521, 25.859556</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>359</v>
       </c>
@@ -22549,7 +22598,7 @@
         <v>56.851194, 26.220472</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>360</v>
       </c>
@@ -22585,7 +22634,7 @@
         <v>56.844806, 26.364528</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>361</v>
       </c>
@@ -22621,7 +22670,7 @@
         <v>56.827667, 26.505167</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>362</v>
       </c>
@@ -22657,7 +22706,7 @@
         <v>56.831498, 26.610752</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>363</v>
       </c>
@@ -22693,7 +22742,7 @@
         <v>56.861805, 26.658464</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>364</v>
       </c>
@@ -22729,7 +22778,7 @@
         <v>56.905183, 26.707405</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>365</v>
       </c>
@@ -22765,7 +22814,7 @@
         <v>57.24910, 27.38232</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>366</v>
       </c>
@@ -22801,7 +22850,7 @@
         <v>57.27520, 27.35809</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>367</v>
       </c>
@@ -22840,7 +22889,7 @@
         <v>57.289821, 27.340888</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>368</v>
       </c>
@@ -22876,7 +22925,7 @@
         <v>57.330215, 27.312357</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>369</v>
       </c>
@@ -22915,7 +22964,7 @@
         <v>57.362624, 27.315777</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>370</v>
       </c>
@@ -22954,7 +23003,7 @@
         <v>57.401177, 27.335594</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>371</v>
       </c>
@@ -22993,7 +23042,7 @@
         <v>57.423647, 27.359652</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>372</v>
       </c>
@@ -23032,7 +23081,7 @@
         <v>57.428104, 27.384808</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>373</v>
       </c>
@@ -23071,7 +23120,7 @@
         <v>57.430523, 27.441698</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>374</v>
       </c>
@@ -23107,7 +23156,7 @@
         <v>55.874908, 26.527644</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>375</v>
       </c>
@@ -23146,7 +23195,7 @@
         <v>55.897044, 26.532903</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>376</v>
       </c>
@@ -23182,7 +23231,7 @@
         <v>55.92519, 26.5601</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>377</v>
       </c>
@@ -23221,7 +23270,7 @@
         <v>55.936811, 26.571194</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>378</v>
       </c>
@@ -23257,7 +23306,7 @@
         <v>55.955633, 26.590055</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>379</v>
       </c>
@@ -23293,7 +23342,7 @@
         <v>55.992485, 26.626542</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>380</v>
       </c>
@@ -23329,7 +23378,7 @@
         <v>56.036335, 26.676177</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>381</v>
       </c>
@@ -23368,7 +23417,7 @@
         <v>56.081289, 26.738209</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>382</v>
       </c>
@@ -23404,7 +23453,7 @@
         <v>56.125521, 26.805301</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>383</v>
       </c>
@@ -23440,7 +23489,7 @@
         <v>56.141246, 26.833720</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>384</v>
       </c>
@@ -23479,7 +23528,7 @@
         <v>56.178126, 26.890829</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>385</v>
       </c>
@@ -23515,7 +23564,7 @@
         <v>56.210756, 26.939639</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>386</v>
       </c>
@@ -23551,7 +23600,7 @@
         <v>56.236395, 26.979052</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>387</v>
       </c>
@@ -23587,7 +23636,7 @@
         <v>56.272839, 27.049966</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>388</v>
       </c>
@@ -23623,7 +23672,7 @@
         <v>56.303425, 27.089521</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>389</v>
       </c>
@@ -23662,7 +23711,7 @@
         <v>56.357569, 27.152646</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>390</v>
       </c>
@@ -23698,7 +23747,7 @@
         <v>56.414663, 27.219623</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>391</v>
       </c>
@@ -23737,7 +23786,7 @@
         <v>56.501602, 27.315521</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>392</v>
       </c>
@@ -23773,7 +23822,7 @@
         <v>56.534144, 27.323648</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>393</v>
       </c>
@@ -23809,7 +23858,7 @@
         <v>56.632740, 27.411567</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>394</v>
       </c>
@@ -23845,7 +23894,7 @@
         <v>56.695310, 27.525935</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>395</v>
       </c>
@@ -23881,7 +23930,7 @@
         <v>56.751034, 27.603377</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>396</v>
       </c>
@@ -23917,7 +23966,7 @@
         <v>56.792841, 27.661720</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>397</v>
       </c>
@@ -23956,7 +24005,7 @@
         <v>56.815426, 27.694606</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>398</v>
       </c>
@@ -23995,7 +24044,7 @@
         <v>56.882530, 27.732942</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>399</v>
       </c>
@@ -24034,7 +24083,7 @@
         <v>56.975060, 27.753402</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>400</v>
       </c>
@@ -24073,7 +24122,7 @@
         <v>57.02775, 27.82224</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>401</v>
       </c>
@@ -24109,7 +24158,7 @@
         <v>56.588808, 23.712158</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>402</v>
       </c>
@@ -24145,7 +24194,7 @@
         <v>56.530291, 23.699447</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>403</v>
       </c>
@@ -24181,7 +24230,7 @@
         <v>56.505173, 23.698500</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>404</v>
       </c>
@@ -24217,7 +24266,7 @@
         <v>56.465472, 23.691472</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>405</v>
       </c>
@@ -24253,7 +24302,7 @@
         <v>56.449556, 23.688028</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>406</v>
       </c>
@@ -24289,7 +24338,7 @@
         <v>56.351450, 23.646820</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>407</v>
       </c>
@@ -24325,7 +24374,7 @@
         <v>56.319900, 23.621000</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>408</v>
       </c>
@@ -24361,7 +24410,7 @@
         <v>56.294135, 23.615041</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>409</v>
       </c>
@@ -24397,7 +24446,7 @@
         <v>56.245930, 23.604170</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>410</v>
       </c>
@@ -24436,7 +24485,7 @@
         <v>56.231066, 23.599525</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>411</v>
       </c>
@@ -24475,7 +24524,7 @@
         <v>56.168943, 23.562287</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>412</v>
       </c>
@@ -24514,7 +24563,7 @@
         <v>56.098786, 23.533785</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>413</v>
       </c>
@@ -24553,7 +24602,7 @@
         <v>56.054746, 23.475946</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>414</v>
       </c>
@@ -24592,7 +24641,7 @@
         <v>56.010024, 23.389068</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>415</v>
       </c>
@@ -24631,7 +24680,7 @@
         <v>55.955958, 23.310615</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>416</v>
       </c>
@@ -24667,7 +24716,7 @@
         <v>55.923162, 23.314194</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>417</v>
       </c>
@@ -24706,7 +24755,7 @@
         <v>56.349693, 22.476257</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>418</v>
       </c>
@@ -24745,7 +24794,7 @@
         <v>56.310934, 22.365232</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>419</v>
       </c>
@@ -24781,7 +24830,7 @@
         <v>55.854077, 26.486399</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>420</v>
       </c>
@@ -24817,7 +24866,7 @@
         <v>55.823358, 26.493548</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>421</v>
       </c>
@@ -24853,7 +24902,7 @@
         <v>55.758194, 26.481008</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>422</v>
       </c>
@@ -24892,7 +24941,7 @@
         <v>55.714232, 26.470320</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>423</v>
       </c>
@@ -24928,7 +24977,7 @@
         <v>55.699540, 26.465080</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>424</v>
       </c>
@@ -24964,7 +25013,7 @@
         <v>55.898125, 26.427076</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>425</v>
       </c>
@@ -25000,7 +25049,7 @@
         <v>55.931944, 26.334444</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>426</v>
       </c>
@@ -25036,7 +25085,7 @@
         <v>55.942222, 26.230278</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>427</v>
       </c>
@@ -25072,7 +25121,7 @@
         <v>55.949978, 26.130039</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>428</v>
       </c>
@@ -25111,7 +25160,7 @@
         <v>55.942300, 26.011800</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>429</v>
       </c>
@@ -25147,7 +25196,7 @@
         <v>55.944283, 25.997131</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>430</v>
       </c>
@@ -25183,7 +25232,7 @@
         <v>55.953300, 25.804972</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>431</v>
       </c>
@@ -25222,7 +25271,7 @@
         <v>55.957574, 25.690570</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>432</v>
       </c>
@@ -25258,7 +25307,7 @@
         <v>55.939554, 25.597386</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>433</v>
       </c>
@@ -25294,7 +25343,7 @@
         <v>55.915700, 25.459100</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>434</v>
       </c>
@@ -25330,7 +25379,7 @@
         <v>55.907537, 25.387431</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>435</v>
       </c>
@@ -25366,7 +25415,7 @@
         <v>55.883237, 25.319151</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>436</v>
       </c>
@@ -25402,7 +25451,7 @@
         <v>55.861602, 25.195981</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>437</v>
       </c>
@@ -25438,7 +25487,7 @@
         <v>55.826396, 24.991944</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>438</v>
       </c>
@@ -25474,7 +25523,7 @@
         <v>55.769500, 24.886400</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>439</v>
       </c>
@@ -25510,7 +25559,7 @@
         <v>55.766599, 24.740133</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>440</v>
       </c>
@@ -25546,7 +25595,7 @@
         <v>55.770701, 24.650468</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>441</v>
       </c>
@@ -25582,7 +25631,7 @@
         <v>55.770839, 24.534472</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>442</v>
       </c>
@@ -25618,7 +25667,7 @@
         <v>55.764897, 24.485659</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>443</v>
       </c>
@@ -25657,7 +25706,7 @@
         <v>55.754589, 24.444351</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>444</v>
       </c>
@@ -25693,7 +25742,7 @@
         <v>55.745225, 24.354594</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>445</v>
       </c>
@@ -25729,7 +25778,7 @@
         <v>57.785444, 26.175362</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>446</v>
       </c>
@@ -25765,7 +25814,7 @@
         <v>57.789253, 26.238461</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>447</v>
       </c>
@@ -25801,7 +25850,7 @@
         <v>57.799942, 26.311493</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>448</v>
       </c>
@@ -25837,7 +25886,7 @@
         <v>57.806981, 26.389036</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>449</v>
       </c>
@@ -25873,7 +25922,7 @@
         <v>57.811222, 26.463139</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>450</v>
       </c>
@@ -25909,7 +25958,7 @@
         <v>57.828045, 26.533298</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>451</v>
       </c>
@@ -25945,7 +25994,7 @@
         <v>57.843080, 26.633006</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>452</v>
       </c>
@@ -25981,7 +26030,7 @@
         <v>57.838967, 26.696383</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>453</v>
       </c>
@@ -26017,7 +26066,7 @@
         <v>57.836874, 26.801475</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>454</v>
       </c>
@@ -26053,7 +26102,7 @@
         <v>57.835139, 26.921472</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>455</v>
       </c>
@@ -26089,7 +26138,7 @@
         <v>57.827461, 27.023305</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>456</v>
       </c>
@@ -26125,7 +26174,7 @@
         <v>57.833787, 27.126001</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>457</v>
       </c>
@@ -26161,7 +26210,7 @@
         <v>57.840818, 27.167549</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>458</v>
       </c>
@@ -26197,7 +26246,7 @@
         <v>57.844850, 27.248459</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>459</v>
       </c>
@@ -26233,7 +26282,7 @@
         <v>57.844038, 27.317144</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>460</v>
       </c>
@@ -26269,7 +26318,7 @@
         <v>57.847153, 27.409386</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>461</v>
       </c>
@@ -26305,7 +26354,7 @@
         <v>57.840121, 27.468009</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>462</v>
       </c>
@@ -26341,7 +26390,7 @@
         <v>57.837147, 27.575373</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>463</v>
       </c>
@@ -26377,7 +26426,7 @@
         <v>57.837519, 27.632715</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>464</v>
       </c>
@@ -26413,7 +26462,7 @@
         <v>56.974810, 23.826900</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>465</v>
       </c>
@@ -26449,7 +26498,7 @@
         <v>56.969551, 23.265749</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>466</v>
       </c>
@@ -26485,7 +26534,7 @@
         <v>57.019762, 24.328246</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>467</v>
       </c>
@@ -26521,7 +26570,7 @@
         <v>57.125044, 24.786818</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>468</v>
       </c>
@@ -26557,7 +26606,7 @@
         <v>57.644041, 25.749807</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>469</v>
       </c>
@@ -26593,7 +26642,7 @@
         <v>57.457946, 25.440784</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>470</v>
       </c>
@@ -26629,7 +26678,7 @@
         <v>57.558577, 25.557726</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>471</v>
       </c>
@@ -26665,7 +26714,7 @@
         <v>57.693601, 25.893374</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>472</v>
       </c>
@@ -26701,7 +26750,7 @@
         <v>56.658629, 25.042062</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>473</v>
       </c>
@@ -26737,7 +26786,7 @@
         <v>56.603128, 25.785662</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>474</v>
       </c>
@@ -26773,7 +26822,7 @@
         <v>56.583119, 25.789528</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>475</v>
       </c>
@@ -26809,7 +26858,7 @@
         <v>56.085556, 26.417222</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>476</v>
       </c>
@@ -26845,7 +26894,7 @@
         <v>55.946652, 26.472242</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>477</v>
       </c>
@@ -26881,7 +26930,7 @@
         <v>55.915744, 26.484706</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>478</v>
       </c>
@@ -26917,7 +26966,7 @@
         <v>55.908842, 26.488559</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>479</v>
       </c>
@@ -26953,7 +27002,7 @@
         <v>55.894601, 26.501193</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>480</v>
       </c>
@@ -26992,7 +27041,7 @@
         <v>56.515730, 25.911755</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>481</v>
       </c>
@@ -27028,7 +27077,7 @@
         <v>56.555556, 27.078611</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>482</v>
       </c>
@@ -27064,7 +27113,7 @@
         <v>56.530375, 27.237272</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>483</v>
       </c>
@@ -27100,7 +27149,7 @@
         <v>56.53392, 27.62791</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>484</v>
       </c>
@@ -27136,7 +27185,7 @@
         <v>56.501447, 27.795203</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>485</v>
       </c>
@@ -27175,7 +27224,7 @@
         <v>56.448321, 27.903804</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>486</v>
       </c>
@@ -27211,7 +27260,7 @@
         <v>56.661623, 25.825621</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>487</v>
       </c>
@@ -27247,7 +27296,7 @@
         <v>56.917194, 26.325611</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>488</v>
       </c>
@@ -27283,7 +27332,7 @@
         <v>56.989436, 26.428043</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>489</v>
       </c>
@@ -27319,7 +27368,7 @@
         <v>57.029071, 26.520750</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>490</v>
       </c>
@@ -27355,7 +27404,7 @@
         <v>57.071018, 26.606639</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>491</v>
       </c>
@@ -27391,7 +27440,7 @@
         <v>57.102918, 26.697736</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>492</v>
       </c>
@@ -27430,7 +27479,7 @@
         <v>56.342508, 25.555265</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>493</v>
       </c>
@@ -27466,7 +27515,7 @@
         <v>56.416963, 25.550756</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>494</v>
       </c>
@@ -27502,7 +27551,7 @@
         <v>56.461211, 25.488026</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>495</v>
       </c>
@@ -27538,7 +27587,7 @@
         <v>56.474088, 25.426447</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>496</v>
       </c>
@@ -27574,7 +27623,7 @@
         <v>56.489800, 25.346348</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>497</v>
       </c>
@@ -27613,7 +27662,7 @@
         <v>56.486119, 25.881205</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>498</v>
       </c>
@@ -27649,7 +27698,7 @@
         <v>56.422185, 25.882464</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>499</v>
       </c>
@@ -27685,7 +27734,7 @@
         <v>56.399553, 25.815244</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>500</v>
       </c>
@@ -27721,7 +27770,7 @@
         <v>56.386105, 25.778966</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>501</v>
       </c>
@@ -27757,7 +27806,7 @@
         <v>56.399611, 25.720508</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>502</v>
       </c>
@@ -27793,7 +27842,7 @@
         <v>56.384987, 25.675564</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>503</v>
       </c>
@@ -27829,7 +27878,7 @@
         <v>56.360305, 25.622327</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>504</v>
       </c>
@@ -27865,7 +27914,7 @@
         <v>56.328239, 25.502771</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>505</v>
       </c>
@@ -27904,7 +27953,7 @@
         <v>56.293842, 25.414075</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>506</v>
       </c>
@@ -27943,7 +27992,7 @@
         <v>56.283076, 25.401866</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>507</v>
       </c>
@@ -27979,7 +28028,7 @@
         <v>56.264084, 25.350572</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>508</v>
       </c>
@@ -28015,7 +28064,7 @@
         <v>56.205238, 25.301891</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>509</v>
       </c>
@@ -28051,7 +28100,7 @@
         <v>56.143507, 25.280858</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>510</v>
       </c>
@@ -28088,7 +28137,7 @@
         <v>56.358898, 25.793764</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>511</v>
       </c>
@@ -28125,7 +28174,7 @@
         <v>56.342628, 25.845299</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>512</v>
       </c>
@@ -28162,7 +28211,7 @@
         <v>56.297179, 25.920039</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>513</v>
       </c>
@@ -28199,7 +28248,7 @@
         <v>56.281126, 25.990677</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>514</v>
       </c>
@@ -28236,7 +28285,7 @@
         <v>56.245128, 26.027427</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>515</v>
       </c>
@@ -28273,7 +28322,7 @@
         <v>56.205213, 25.997374</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>516</v>
       </c>
@@ -28310,7 +28359,7 @@
         <v>56.179549, 25.946704</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>517</v>
       </c>
@@ -28347,7 +28396,7 @@
         <v>56.160072, 25.875146</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>518</v>
       </c>
@@ -28384,7 +28433,7 @@
         <v>56.150391, 25.808608</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>519</v>
       </c>
@@ -28421,7 +28470,7 @@
         <v>56.155530, 25.760549</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>520</v>
       </c>
@@ -28460,7 +28509,7 @@
         <v>56.105248, 26.056409</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>521</v>
       </c>
@@ -28499,7 +28548,7 @@
         <v>56.086156, 26.094277</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>522</v>
       </c>
@@ -28538,7 +28587,7 @@
         <v>56.067774, 26.125461</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>523</v>
       </c>
@@ -28577,7 +28626,7 @@
         <v>56.032970, 26.129868</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>524</v>
       </c>
@@ -28616,7 +28665,7 @@
         <v>56.00631, 26.09920</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>525</v>
       </c>
@@ -28655,7 +28704,7 @@
         <v>55.95652, 26.08921</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>526</v>
       </c>
@@ -28692,7 +28741,7 @@
         <v>58.343896, 26.68666</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>527</v>
       </c>
@@ -28729,7 +28778,7 @@
         <v>58.294011, 26.586002</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>528</v>
       </c>
@@ -28766,7 +28815,7 @@
         <v>58.246820, 26.469319</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>529</v>
       </c>
@@ -28803,7 +28852,7 @@
         <v>58.171667, 26.370278</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>530</v>
       </c>
@@ -28840,7 +28889,7 @@
         <v>58.082363, 26.274275</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>531</v>
       </c>
@@ -28893,10 +28942,10 @@
       <c r="E532" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F532" s="12" t="s">
+      <c r="F532" s="11" t="s">
         <v>1936</v>
       </c>
-      <c r="G532" s="12" t="s">
+      <c r="G532" s="11" t="s">
         <v>1937</v>
       </c>
       <c r="H532" s="1" t="s">
@@ -28929,10 +28978,10 @@
       <c r="E533" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F533" s="12" t="s">
+      <c r="F533" s="11" t="s">
         <v>1940</v>
       </c>
-      <c r="G533" s="12" t="s">
+      <c r="G533" s="11" t="s">
         <v>1941</v>
       </c>
       <c r="H533" s="1" t="s">
@@ -28965,7 +29014,7 @@
       <c r="E534" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F534" s="12" t="s">
+      <c r="F534" s="11" t="s">
         <v>1943</v>
       </c>
       <c r="G534" s="7" t="s">
@@ -29001,7 +29050,7 @@
       <c r="E535" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F535" s="12" t="s">
+      <c r="F535" s="11" t="s">
         <v>1949</v>
       </c>
       <c r="G535" s="7" t="s">
@@ -29040,7 +29089,7 @@
       <c r="E536" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F536" s="12" t="s">
+      <c r="F536" s="11" t="s">
         <v>1954</v>
       </c>
       <c r="G536" s="7" t="s">
@@ -29076,7 +29125,7 @@
       <c r="E537" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F537" s="12" t="s">
+      <c r="F537" s="11" t="s">
         <v>1957</v>
       </c>
       <c r="G537" s="7" t="s">
@@ -29112,7 +29161,7 @@
       <c r="E538" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F538" s="12" t="s">
+      <c r="F538" s="11" t="s">
         <v>1960</v>
       </c>
       <c r="G538" s="7">
@@ -29148,7 +29197,7 @@
       <c r="E539" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F539" s="12" t="s">
+      <c r="F539" s="11" t="s">
         <v>1962</v>
       </c>
       <c r="G539" s="7">
@@ -29184,10 +29233,10 @@
       <c r="E540" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F540" s="12" t="s">
+      <c r="F540" s="11" t="s">
         <v>1965</v>
       </c>
-      <c r="G540" s="12" t="s">
+      <c r="G540" s="11" t="s">
         <v>1966</v>
       </c>
       <c r="H540" s="1" t="s">
@@ -29220,10 +29269,10 @@
       <c r="E541" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F541" s="12" t="s">
+      <c r="F541" s="11" t="s">
         <v>1969</v>
       </c>
-      <c r="G541" s="12" t="s">
+      <c r="G541" s="11" t="s">
         <v>1970</v>
       </c>
       <c r="H541" t="s">
@@ -29250,13 +29299,13 @@
       <c r="C542" s="9" t="s">
         <v>1971</v>
       </c>
-      <c r="D542" s="11" t="s">
+      <c r="D542" s="10" t="s">
         <v>1974</v>
       </c>
       <c r="E542" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F542" s="12" t="s">
+      <c r="F542" s="11" t="s">
         <v>1972</v>
       </c>
       <c r="G542" s="7" t="s">
@@ -29286,13 +29335,13 @@
       <c r="C543" s="9" t="s">
         <v>1975</v>
       </c>
-      <c r="D543" s="11" t="s">
+      <c r="D543" s="10" t="s">
         <v>1974</v>
       </c>
       <c r="E543" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F543" s="12" t="s">
+      <c r="F543" s="11" t="s">
         <v>1977</v>
       </c>
       <c r="G543" s="7" t="s">
@@ -29307,7 +29356,7 @@
       <c r="J543" s="1">
         <v>2024</v>
       </c>
-      <c r="K543" s="11" t="s">
+      <c r="K543" s="10" t="s">
         <v>1976</v>
       </c>
       <c r="L543" s="1" t="str">
@@ -29331,7 +29380,7 @@
       <c r="E544" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F544" s="12" t="s">
+      <c r="F544" s="11" t="s">
         <v>1980</v>
       </c>
       <c r="G544" s="7" t="s">
@@ -29367,7 +29416,7 @@
       <c r="E545" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F545" s="12" t="s">
+      <c r="F545" s="11" t="s">
         <v>1984</v>
       </c>
       <c r="G545" s="7" t="s">
@@ -29403,7 +29452,7 @@
       <c r="E546" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F546" s="12" t="s">
+      <c r="F546" s="11" t="s">
         <v>1987</v>
       </c>
       <c r="G546" s="7" t="s">
@@ -29439,10 +29488,10 @@
       <c r="E547" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F547" s="12" t="s">
+      <c r="F547" s="11" t="s">
         <v>1990</v>
       </c>
-      <c r="G547" s="12" t="s">
+      <c r="G547" s="11" t="s">
         <v>1991</v>
       </c>
       <c r="H547" s="1" t="s">
@@ -29475,10 +29524,10 @@
       <c r="E548" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F548" s="12" t="s">
+      <c r="F548" s="11" t="s">
         <v>1993</v>
       </c>
-      <c r="G548" s="12">
+      <c r="G548" s="11">
         <v>24.865556000000002</v>
       </c>
       <c r="H548" s="1" t="s">
@@ -29511,10 +29560,10 @@
       <c r="E549" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F549" s="12" t="s">
+      <c r="F549" s="11" t="s">
         <v>1995</v>
       </c>
-      <c r="G549" s="12" t="s">
+      <c r="G549" s="11" t="s">
         <v>1996</v>
       </c>
       <c r="H549" s="1" t="s">
@@ -29547,10 +29596,10 @@
       <c r="E550" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F550" s="12" t="s">
+      <c r="F550" s="11" t="s">
         <v>2001</v>
       </c>
-      <c r="G550" s="12" t="s">
+      <c r="G550" s="11" t="s">
         <v>2002</v>
       </c>
       <c r="H550" s="1" t="s">
@@ -29583,7 +29632,7 @@
       <c r="E551" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F551" s="12" t="s">
+      <c r="F551" s="11" t="s">
         <v>2004</v>
       </c>
       <c r="G551" s="7" t="s">
@@ -29619,10 +29668,10 @@
       <c r="E552" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F552" s="12" t="s">
+      <c r="F552" s="11" t="s">
         <v>2007</v>
       </c>
-      <c r="G552" s="12" t="s">
+      <c r="G552" s="11" t="s">
         <v>2008</v>
       </c>
       <c r="H552" s="1" t="s">
@@ -29655,10 +29704,10 @@
       <c r="E553" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F553" s="12" t="s">
+      <c r="F553" s="11" t="s">
         <v>2010</v>
       </c>
-      <c r="G553" s="12" t="s">
+      <c r="G553" s="11" t="s">
         <v>2011</v>
       </c>
       <c r="H553" s="1" t="s">
@@ -29691,10 +29740,10 @@
       <c r="E554" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F554" s="12" t="s">
+      <c r="F554" s="11" t="s">
         <v>2013</v>
       </c>
-      <c r="G554" s="12" t="s">
+      <c r="G554" s="11" t="s">
         <v>2014</v>
       </c>
       <c r="H554" s="1" t="s">
@@ -29730,10 +29779,10 @@
       <c r="E555" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F555" s="12" t="s">
+      <c r="F555" s="11" t="s">
         <v>2022</v>
       </c>
-      <c r="G555" s="12" t="s">
+      <c r="G555" s="11" t="s">
         <v>2023</v>
       </c>
       <c r="H555" s="1" t="s">
@@ -29766,10 +29815,10 @@
       <c r="E556" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F556" s="12" t="s">
+      <c r="F556" s="11" t="s">
         <v>2020</v>
       </c>
-      <c r="G556" s="12" t="s">
+      <c r="G556" s="11" t="s">
         <v>2021</v>
       </c>
       <c r="H556" s="1" t="s">
@@ -29802,7 +29851,7 @@
       <c r="E557" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F557" s="12" t="s">
+      <c r="F557" s="11" t="s">
         <v>2018</v>
       </c>
       <c r="G557" s="7" t="s">
@@ -29838,10 +29887,10 @@
       <c r="E558" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F558" s="12" t="s">
+      <c r="F558" s="11" t="s">
         <v>2025</v>
       </c>
-      <c r="G558" s="12" t="s">
+      <c r="G558" s="11" t="s">
         <v>2026</v>
       </c>
       <c r="H558" t="s">
@@ -29874,10 +29923,10 @@
       <c r="E559" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F559" s="12" t="s">
+      <c r="F559" s="11" t="s">
         <v>2028</v>
       </c>
-      <c r="G559" s="12" t="s">
+      <c r="G559" s="11" t="s">
         <v>2029</v>
       </c>
       <c r="H559" s="1" t="s">
@@ -29910,10 +29959,10 @@
       <c r="E560" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F560" s="12" t="s">
+      <c r="F560" s="11" t="s">
         <v>2032</v>
       </c>
-      <c r="G560" s="12" t="s">
+      <c r="G560" s="11" t="s">
         <v>2033</v>
       </c>
       <c r="H560" s="1" t="s">
@@ -29946,7 +29995,7 @@
       <c r="E561" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F561" s="12" t="s">
+      <c r="F561" s="11" t="s">
         <v>2035</v>
       </c>
       <c r="G561" s="7" t="s">
@@ -29982,10 +30031,10 @@
       <c r="E562" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F562" s="12" t="s">
+      <c r="F562" s="11" t="s">
         <v>2039</v>
       </c>
-      <c r="G562" s="12" t="s">
+      <c r="G562" s="11" t="s">
         <v>2040</v>
       </c>
       <c r="H562" s="1" t="s">
@@ -30018,7 +30067,7 @@
       <c r="E563" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F563" s="12" t="s">
+      <c r="F563" s="11" t="s">
         <v>2043</v>
       </c>
       <c r="G563" s="7" t="s">
@@ -30033,7 +30082,7 @@
       <c r="J563" s="9">
         <v>1968</v>
       </c>
-      <c r="K563" s="11" t="s">
+      <c r="K563" s="10" t="s">
         <v>2042</v>
       </c>
       <c r="L563" s="9" t="str">
@@ -30057,10 +30106,10 @@
       <c r="E564" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F564" s="12" t="s">
+      <c r="F564" s="11" t="s">
         <v>2047</v>
       </c>
-      <c r="G564" s="12" t="s">
+      <c r="G564" s="11" t="s">
         <v>2048</v>
       </c>
       <c r="H564" s="1" t="s">
@@ -30093,10 +30142,10 @@
       <c r="E565" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F565" s="12" t="s">
+      <c r="F565" s="11" t="s">
         <v>2051</v>
       </c>
-      <c r="G565" s="12" t="s">
+      <c r="G565" s="11" t="s">
         <v>2052</v>
       </c>
       <c r="H565" s="1" t="s">
@@ -30129,10 +30178,10 @@
       <c r="E566" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F566" s="12" t="s">
+      <c r="F566" s="11" t="s">
         <v>2054</v>
       </c>
-      <c r="G566" s="12" t="s">
+      <c r="G566" s="11" t="s">
         <v>2055</v>
       </c>
       <c r="H566" s="1" t="s">
@@ -30165,10 +30214,10 @@
       <c r="E567" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F567" s="12" t="s">
+      <c r="F567" s="11" t="s">
         <v>2058</v>
       </c>
-      <c r="G567" s="12" t="s">
+      <c r="G567" s="11" t="s">
         <v>2059</v>
       </c>
       <c r="H567" s="1" t="s">
@@ -30180,7 +30229,7 @@
       <c r="J567" s="9">
         <v>1968</v>
       </c>
-      <c r="K567" s="11" t="s">
+      <c r="K567" s="10" t="s">
         <v>2060</v>
       </c>
       <c r="L567" s="9" t="str">
@@ -30204,10 +30253,10 @@
       <c r="E568" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F568" s="12" t="s">
+      <c r="F568" s="11" t="s">
         <v>2062</v>
       </c>
-      <c r="G568" s="12" t="s">
+      <c r="G568" s="11" t="s">
         <v>2063</v>
       </c>
       <c r="H568" s="1" t="s">
@@ -30240,10 +30289,10 @@
       <c r="E569" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F569" s="12" t="s">
+      <c r="F569" s="11" t="s">
         <v>2065</v>
       </c>
-      <c r="G569" s="12" t="s">
+      <c r="G569" s="11" t="s">
         <v>2066</v>
       </c>
       <c r="H569" s="1" t="s">
@@ -30276,10 +30325,10 @@
       <c r="E570" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F570" s="12" t="s">
+      <c r="F570" s="11" t="s">
         <v>2068</v>
       </c>
-      <c r="G570" s="12" t="s">
+      <c r="G570" s="11" t="s">
         <v>2069</v>
       </c>
       <c r="H570" s="1" t="s">
@@ -30312,10 +30361,10 @@
       <c r="E571" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F571" s="12" t="s">
+      <c r="F571" s="11" t="s">
         <v>2072</v>
       </c>
-      <c r="G571" s="12">
+      <c r="G571" s="11">
         <v>23.930797999999999</v>
       </c>
       <c r="H571" s="1" t="s">
@@ -30348,10 +30397,10 @@
       <c r="E572" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F572" s="12" t="s">
+      <c r="F572" s="11" t="s">
         <v>2074</v>
       </c>
-      <c r="G572" s="12" t="s">
+      <c r="G572" s="11" t="s">
         <v>2075</v>
       </c>
       <c r="H572" s="1" t="s">
@@ -30384,10 +30433,10 @@
       <c r="E573" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F573" s="12" t="s">
+      <c r="F573" s="11" t="s">
         <v>2077</v>
       </c>
-      <c r="G573" s="12" t="s">
+      <c r="G573" s="11" t="s">
         <v>2078</v>
       </c>
       <c r="H573" s="1" t="s">
@@ -30420,10 +30469,10 @@
       <c r="E574" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F574" s="12" t="s">
+      <c r="F574" s="11" t="s">
         <v>2080</v>
       </c>
-      <c r="G574" s="12" t="s">
+      <c r="G574" s="11" t="s">
         <v>2081</v>
       </c>
       <c r="H574" s="1" t="s">
@@ -30456,10 +30505,10 @@
       <c r="E575" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F575" s="12" t="s">
+      <c r="F575" s="11" t="s">
         <v>2083</v>
       </c>
-      <c r="G575" s="12" t="s">
+      <c r="G575" s="11" t="s">
         <v>2084</v>
       </c>
       <c r="H575" s="1" t="s">
@@ -30492,10 +30541,10 @@
       <c r="E576" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F576" s="12" t="s">
+      <c r="F576" s="11" t="s">
         <v>2086</v>
       </c>
-      <c r="G576" s="12" t="s">
+      <c r="G576" s="11" t="s">
         <v>2087</v>
       </c>
       <c r="H576" s="1" t="s">
@@ -30508,7 +30557,7 @@
         <v>1968</v>
       </c>
       <c r="L576" s="9" t="str">
-        <f t="shared" ref="L576:L598" si="3">F576&amp;", "&amp;G576</f>
+        <f t="shared" ref="L576:L603" si="3">F576&amp;", "&amp;G576</f>
         <v>58.570917, 23.522348</v>
       </c>
     </row>
@@ -30528,10 +30577,10 @@
       <c r="E577" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F577" s="12" t="s">
+      <c r="F577" s="11" t="s">
         <v>2091</v>
       </c>
-      <c r="G577" s="12" t="s">
+      <c r="G577" s="11" t="s">
         <v>2092</v>
       </c>
       <c r="H577" s="1" t="s">
@@ -30567,10 +30616,10 @@
       <c r="E578" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F578" s="12" t="s">
+      <c r="F578" s="11" t="s">
         <v>2095</v>
       </c>
-      <c r="G578" s="12" t="s">
+      <c r="G578" s="11" t="s">
         <v>2096</v>
       </c>
       <c r="H578" s="1" t="s">
@@ -30603,10 +30652,10 @@
       <c r="E579" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F579" s="12">
+      <c r="F579" s="11">
         <v>59.03</v>
       </c>
-      <c r="G579" s="12" t="s">
+      <c r="G579" s="11" t="s">
         <v>2099</v>
       </c>
       <c r="H579" s="1" t="s">
@@ -30639,10 +30688,10 @@
       <c r="E580" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F580" s="12" t="s">
+      <c r="F580" s="11" t="s">
         <v>2101</v>
       </c>
-      <c r="G580" s="12" t="s">
+      <c r="G580" s="11" t="s">
         <v>2102</v>
       </c>
       <c r="H580" s="1" t="s">
@@ -30675,10 +30724,10 @@
       <c r="E581" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F581" s="12" t="s">
+      <c r="F581" s="11" t="s">
         <v>2105</v>
       </c>
-      <c r="G581" s="12" t="s">
+      <c r="G581" s="11" t="s">
         <v>2106</v>
       </c>
       <c r="H581" s="1" t="s">
@@ -30711,10 +30760,10 @@
       <c r="E582" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F582" s="12" t="s">
+      <c r="F582" s="11" t="s">
         <v>2109</v>
       </c>
-      <c r="G582" s="12" t="s">
+      <c r="G582" s="11" t="s">
         <v>2110</v>
       </c>
       <c r="H582" s="1" t="s">
@@ -30726,7 +30775,7 @@
       <c r="J582" s="9">
         <v>1999</v>
       </c>
-      <c r="K582" s="11" t="s">
+      <c r="K582" s="10" t="s">
         <v>2015</v>
       </c>
       <c r="L582" s="9" t="str">
@@ -30750,10 +30799,10 @@
       <c r="E583" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F583" s="12" t="s">
+      <c r="F583" s="11" t="s">
         <v>2112</v>
       </c>
-      <c r="G583" s="12" t="s">
+      <c r="G583" s="11" t="s">
         <v>2113</v>
       </c>
       <c r="H583" s="1" t="s">
@@ -30786,10 +30835,10 @@
       <c r="E584" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F584" s="12" t="s">
+      <c r="F584" s="11" t="s">
         <v>2116</v>
       </c>
-      <c r="G584" s="12" t="s">
+      <c r="G584" s="11" t="s">
         <v>2117</v>
       </c>
       <c r="H584" s="1" t="s">
@@ -30822,10 +30871,10 @@
       <c r="E585" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F585" s="12" t="s">
+      <c r="F585" s="11" t="s">
         <v>2119</v>
       </c>
-      <c r="G585" s="12" t="s">
+      <c r="G585" s="11" t="s">
         <v>2120</v>
       </c>
       <c r="H585" s="1" t="s">
@@ -30858,10 +30907,10 @@
       <c r="E586" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F586" s="12" t="s">
+      <c r="F586" s="11" t="s">
         <v>2123</v>
       </c>
-      <c r="G586" s="12" t="s">
+      <c r="G586" s="11" t="s">
         <v>2124</v>
       </c>
       <c r="H586" s="1" t="s">
@@ -30894,10 +30943,10 @@
       <c r="E587" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F587" s="12" t="s">
+      <c r="F587" s="11" t="s">
         <v>2130</v>
       </c>
-      <c r="G587" s="12" t="s">
+      <c r="G587" s="11" t="s">
         <v>2131</v>
       </c>
       <c r="H587" s="1" t="s">
@@ -30909,7 +30958,7 @@
       <c r="J587" s="9">
         <v>2004</v>
       </c>
-      <c r="K587" s="11" t="s">
+      <c r="K587" s="10" t="s">
         <v>2126</v>
       </c>
       <c r="L587" s="9" t="str">
@@ -30933,10 +30982,10 @@
       <c r="E588" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F588" s="12" t="s">
+      <c r="F588" s="11" t="s">
         <v>2128</v>
       </c>
-      <c r="G588" s="12" t="s">
+      <c r="G588" s="11" t="s">
         <v>2129</v>
       </c>
       <c r="H588" s="1" t="s">
@@ -30948,7 +30997,7 @@
       <c r="J588">
         <v>1970</v>
       </c>
-      <c r="K588" s="11" t="s">
+      <c r="K588" s="10" t="s">
         <v>152</v>
       </c>
       <c r="L588" s="9" t="str">
@@ -30963,7 +31012,7 @@
       <c r="B589" s="9" t="s">
         <v>2132</v>
       </c>
-      <c r="C589" s="11" t="s">
+      <c r="C589" s="10" t="s">
         <v>2138</v>
       </c>
       <c r="D589" s="9" t="s">
@@ -30972,10 +31021,10 @@
       <c r="E589" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F589" s="12" t="s">
+      <c r="F589" s="11" t="s">
         <v>2144</v>
       </c>
-      <c r="G589" s="12" t="s">
+      <c r="G589" s="11" t="s">
         <v>2145</v>
       </c>
       <c r="H589" s="9" t="s">
@@ -30999,7 +31048,7 @@
       <c r="B590" s="9" t="s">
         <v>2133</v>
       </c>
-      <c r="C590" s="11" t="s">
+      <c r="C590" s="10" t="s">
         <v>2138</v>
       </c>
       <c r="D590" s="9" t="s">
@@ -31008,10 +31057,10 @@
       <c r="E590" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F590" s="12" t="s">
+      <c r="F590" s="11" t="s">
         <v>2142</v>
       </c>
-      <c r="G590" s="12" t="s">
+      <c r="G590" s="11" t="s">
         <v>2143</v>
       </c>
       <c r="H590" s="1" t="s">
@@ -31035,7 +31084,7 @@
       <c r="B591" s="9" t="s">
         <v>2134</v>
       </c>
-      <c r="C591" s="11" t="s">
+      <c r="C591" s="10" t="s">
         <v>2138</v>
       </c>
       <c r="D591" s="9" t="s">
@@ -31044,10 +31093,10 @@
       <c r="E591" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F591" s="12" t="s">
+      <c r="F591" s="11" t="s">
         <v>2139</v>
       </c>
-      <c r="G591" s="12" t="s">
+      <c r="G591" s="11" t="s">
         <v>2140</v>
       </c>
       <c r="H591" s="1" t="s">
@@ -31059,7 +31108,7 @@
       <c r="J591">
         <v>1971</v>
       </c>
-      <c r="K591" s="11" t="s">
+      <c r="K591" s="10" t="s">
         <v>2141</v>
       </c>
       <c r="L591" s="9" t="str">
@@ -31074,7 +31123,7 @@
       <c r="B592" s="9" t="s">
         <v>2135</v>
       </c>
-      <c r="C592" s="11" t="s">
+      <c r="C592" s="10" t="s">
         <v>2138</v>
       </c>
       <c r="D592" s="9" t="s">
@@ -31083,10 +31132,10 @@
       <c r="E592" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F592" s="12" t="s">
+      <c r="F592" s="11" t="s">
         <v>2137</v>
       </c>
-      <c r="G592" s="10">
+      <c r="G592" s="11">
         <v>24.6587</v>
       </c>
       <c r="H592" s="1" t="s">
@@ -31098,7 +31147,7 @@
       <c r="J592">
         <v>1971</v>
       </c>
-      <c r="K592" s="11" t="s">
+      <c r="K592" s="10" t="s">
         <v>2136</v>
       </c>
       <c r="L592" s="9" t="str">
@@ -31113,7 +31162,7 @@
       <c r="B593" s="9" t="s">
         <v>2148</v>
       </c>
-      <c r="C593" s="11" t="s">
+      <c r="C593" s="10" t="s">
         <v>2138</v>
       </c>
       <c r="D593" s="9" t="s">
@@ -31122,10 +31171,10 @@
       <c r="E593" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F593" s="12" t="s">
+      <c r="F593" s="11" t="s">
         <v>2146</v>
       </c>
-      <c r="G593" s="12" t="s">
+      <c r="G593" s="11" t="s">
         <v>2147</v>
       </c>
       <c r="H593" s="1" t="s">
@@ -31137,7 +31186,7 @@
       <c r="J593">
         <v>1959</v>
       </c>
-      <c r="K593" s="11" t="s">
+      <c r="K593" s="10" t="s">
         <v>152</v>
       </c>
       <c r="L593" s="9" t="str">
@@ -31152,7 +31201,7 @@
       <c r="B594" s="9" t="s">
         <v>2149</v>
       </c>
-      <c r="C594" s="11" t="s">
+      <c r="C594" s="10" t="s">
         <v>2156</v>
       </c>
       <c r="D594" s="9" t="s">
@@ -31161,10 +31210,10 @@
       <c r="E594" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F594" s="12" t="s">
+      <c r="F594" s="11" t="s">
         <v>2154</v>
       </c>
-      <c r="G594" s="12" t="s">
+      <c r="G594" s="11" t="s">
         <v>2155</v>
       </c>
       <c r="H594" s="1" t="s">
@@ -31188,7 +31237,7 @@
       <c r="B595" s="9" t="s">
         <v>2150</v>
       </c>
-      <c r="C595" s="11" t="s">
+      <c r="C595" s="10" t="s">
         <v>2152</v>
       </c>
       <c r="D595" s="9" t="s">
@@ -31197,10 +31246,10 @@
       <c r="E595" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F595" s="12" t="s">
+      <c r="F595" s="11" t="s">
         <v>2157</v>
       </c>
-      <c r="G595" s="12" t="s">
+      <c r="G595" s="11" t="s">
         <v>2158</v>
       </c>
       <c r="H595" s="1" t="s">
@@ -31212,7 +31261,7 @@
       <c r="J595">
         <v>1959</v>
       </c>
-      <c r="K595" s="11" t="s">
+      <c r="K595" s="10" t="s">
         <v>152</v>
       </c>
       <c r="L595" s="9" t="str">
@@ -31236,10 +31285,10 @@
       <c r="E596" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F596" s="12" t="s">
+      <c r="F596" s="11" t="s">
         <v>2159</v>
       </c>
-      <c r="G596" s="12" t="s">
+      <c r="G596" s="11" t="s">
         <v>2160</v>
       </c>
       <c r="H596" s="1" t="s">
@@ -31272,10 +31321,10 @@
       <c r="E597" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F597" s="12" t="s">
+      <c r="F597" s="11" t="s">
         <v>2163</v>
       </c>
-      <c r="G597" s="12" t="s">
+      <c r="G597" s="11" t="s">
         <v>2164</v>
       </c>
       <c r="H597" s="1" t="s">
@@ -31287,7 +31336,7 @@
       <c r="J597">
         <v>1959</v>
       </c>
-      <c r="K597" s="11" t="s">
+      <c r="K597" s="10" t="s">
         <v>152</v>
       </c>
       <c r="L597" s="9" t="str">
@@ -31311,10 +31360,10 @@
       <c r="E598" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F598" s="12" t="s">
+      <c r="F598" s="11" t="s">
         <v>2161</v>
       </c>
-      <c r="G598" s="7" t="s">
+      <c r="G598" s="11" t="s">
         <v>2162</v>
       </c>
       <c r="H598" s="1" t="s">
@@ -31329,6 +31378,195 @@
       <c r="L598" s="9" t="str">
         <f t="shared" si="3"/>
         <v>59.397018, 24.414266</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>599</v>
+      </c>
+      <c r="B599" s="9" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C599" s="9" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F599" s="11" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G599" s="11">
+        <v>27.527833000000001</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J599">
+        <v>2001</v>
+      </c>
+      <c r="L599" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>57.834778, 27.527833</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>600</v>
+      </c>
+      <c r="B600" s="9" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C600" s="9" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D600" s="9" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E600" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F600" s="11" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G600" s="11" t="s">
+        <v>2170</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J600" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K600" s="9" t="s">
+        <v>2171</v>
+      </c>
+      <c r="L600" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>58.323508, 26.717806</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>601</v>
+      </c>
+      <c r="B601" s="9" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C601" s="9" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D601" s="9" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E601" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F601" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G601" s="11" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J601">
+        <v>2001</v>
+      </c>
+      <c r="L601" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>58.202977, 26.877288</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>602</v>
+      </c>
+      <c r="B602" s="10" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C602" s="10" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D602" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E602" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F602" s="11" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G602" s="11" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J602">
+        <v>1990</v>
+      </c>
+      <c r="K602" s="10" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L602" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>57.867625, 27.517654</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>603</v>
+      </c>
+      <c r="B603" s="9" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C603" s="9" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D603" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E603" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F603" s="11" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G603" s="11" t="s">
+        <v>2182</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J603">
+        <v>1990</v>
+      </c>
+      <c r="K603" s="10" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L603" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>57.842713, 27.557978</v>
       </c>
     </row>
   </sheetData>
